--- a/app/public/uploads/Book1.xlsx
+++ b/app/public/uploads/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAnTotNgiep\DoAnTotNghiep-main - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CFE1A-8260-4E76-8FD3-E643535F4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D752CCC3-CEAD-411A-B0D3-E1777C380B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{410D4F38-1A29-4C01-ABC4-0A43E0C82132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,85 +33,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t>jw2008lm@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>Mã sinh viên</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tên sinh viên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Quê quán</t>
+  </si>
+  <si>
+    <t>Bậc đào tạo</t>
+  </si>
+  <si>
+    <t>Hệ đào tạo</t>
+  </si>
+  <si>
+    <t>Khóa đào tạo</t>
+  </si>
+  <si>
+    <t>Điểm tích lũy</t>
+  </si>
+  <si>
+    <t>Kỹ năng</t>
+  </si>
+  <si>
+    <t>lớp</t>
   </si>
   <si>
     <t>phamtrungkienk63b@gmail.com</t>
   </si>
   <si>
-    <t>Idsinhvien</t>
-  </si>
-  <si>
-    <t>Tên sinh viên</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Năm sinh</t>
-  </si>
-  <si>
-    <t>Quê quán</t>
-  </si>
-  <si>
-    <t>Bậc đào tạo</t>
-  </si>
-  <si>
-    <t>Hệ đào tạo</t>
-  </si>
-  <si>
-    <t>Khóa đào tạo</t>
-  </si>
-  <si>
-    <t>Điểm tích lũy</t>
-  </si>
-  <si>
-    <t>Kỹ năng</t>
-  </si>
-  <si>
     <t>Phạm Trung Kiên</t>
   </si>
   <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Đại Học</t>
+  </si>
+  <si>
+    <t>Chính Quy</t>
+  </si>
+  <si>
+    <t>2018-2022</t>
+  </si>
+  <si>
+    <t>Tin học văn phòng, Lập trình Back-end Nodejs</t>
+  </si>
+  <si>
+    <t>baongoc@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Bảo Ngọc</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
     <t>Tuyên Quang</t>
   </si>
   <si>
-    <t>Đại Học</t>
-  </si>
-  <si>
-    <t>Chính Quy</t>
-  </si>
-  <si>
-    <t>2018-2022</t>
-  </si>
-  <si>
-    <t>Tin học văn phòng</t>
-  </si>
-  <si>
     <t>Tiếng anh cơ bản</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
+    <t>KHMTk63A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +129,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,8 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -467,144 +482,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFA1F3-F7B8-4EC1-8BBE-835148E7AA72}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3097C32B-D4C8-497D-B2D0-9166734B71BA}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1821051121</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
-        <v>36748</v>
+      <c r="E2" s="3">
+        <v>36533</v>
       </c>
       <c r="F2">
-        <v>1821051121</v>
+        <v>3458544</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>3.2</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1821051002</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1821051007</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
-        <v>36537</v>
+      <c r="E3" s="3">
+        <v>36533</v>
       </c>
       <c r="F3">
-        <v>1821051121</v>
+        <v>3458545</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
       <c r="K3">
         <v>3.2</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5F270A1-87BF-4243-8547-126912617040}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CD5BC02F-472C-4CEA-A5AE-A272E742E35D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2FEB60C5-5E80-4F0B-98BE-EB86FA44C16D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6D5C957D-3D79-4C89-A8B6-E4C7AE027EBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
